--- a/steamcase/user/userQueryMemberIdcase.xlsx
+++ b/steamcase/user/userQueryMemberIdcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2B9577E8-6100-4022-A38C-A8CA0B126E6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E5ED8EDE-0351-456B-9265-2ADF33556956}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_search_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getUserMidTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +65,14 @@
   <si>
     <t>"phoneNo":"18510699506"
 "scenes":"OTP"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过token获取memberId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token_get_memberId_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,13 +451,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
@@ -495,20 +495,20 @@
     </row>
     <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
